--- a/report/reliability/comb/Centro de Educação - CEDU-Graduação (licenciatura).xlsx
+++ b/report/reliability/comb/Centro de Educação - CEDU-Graduação (licenciatura).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.744186018765923</v>
+        <v>0.7318876169234698</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7660691726529938</v>
+        <v>0.7653891220902462</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8768035005689245</v>
+        <v>0.8838480999880896</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.21439068336563938</v>
+        <v>0.20060886339612724</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.274767936064405</v>
+        <v>3.2623769575793666</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.01980095242871179</v>
+        <v>0.019620184357154485</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.3948516579406633</v>
+        <v>1.8165525573902537</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7235647138396787</v>
+        <v>0.6313351764356954</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.17695429201925972</v>
+        <v>0.12126818761357017</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7145858342766318</v>
+        <v>0.7340271880980193</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7305142347018949</v>
+        <v>0.765529451311955</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8531758601375322</v>
+        <v>0.8849939195072173</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.19771106313459946</v>
+        <v>0.21388426936937815</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.710771138111135</v>
+        <v>3.264927964707694</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.022079139781714052</v>
+        <v>0.019894950274182505</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.04403158787684151</v>
+        <v>0.0607063276589971</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.15435151562626478</v>
+        <v>0.14807515625489207</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7165752088108762</v>
+        <v>0.7104068671795174</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7340799281023278</v>
+        <v>0.7420602171241248</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8535500386299668</v>
+        <v>0.8693783625830297</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.20061209659676982</v>
+        <v>0.19337892367724785</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.7605284658045917</v>
+        <v>2.876873853465313</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.02185141460423413</v>
+        <v>0.02109804764757569</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.04339448007477194</v>
+        <v>0.062161359804729144</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.1709004929518856</v>
+        <v>0.1017412875867589</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7205667336550691</v>
+        <v>0.7162206919465969</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7359237933195084</v>
+        <v>0.7474409557496696</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8544751626237004</v>
+        <v>0.8716950977653748</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.20213454760732147</v>
+        <v>0.19783255225083923</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.786785688003728</v>
+        <v>2.9594701625843363</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.021633912685837815</v>
+        <v>0.020615494856417508</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.04319068864182003</v>
+        <v>0.06177564991505862</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.15911302588670634</v>
+        <v>0.12126818761357017</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7306861122892053</v>
+        <v>0.7142925930484771</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7486005362742663</v>
+        <v>0.7378264270512913</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8591306485356346</v>
+        <v>0.8617026781415433</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.21303405768955486</v>
+        <v>0.18997004553854108</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.9777332265551597</v>
+        <v>2.8142669711246557</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.020824785955236836</v>
+        <v>0.02120064457280309</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04204829488913786</v>
+        <v>0.0493347070592823</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.18629969568266322</v>
+        <v>0.1211599719911903</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.715601286949555</v>
+        <v>0.6887444991933498</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7487758979763063</v>
+        <v>0.7351697769651154</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8368509354221174</v>
+        <v>0.8608379177667405</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.21319035159090344</v>
+        <v>0.18787244891989432</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>2.980509799595927</v>
+        <v>2.7760040698537494</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.022230367685499682</v>
+        <v>0.02306025868871111</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.04188880013055666</v>
+        <v>0.04961085700659028</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.18300809108663382</v>
+        <v>0.11683419195656297</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7145875361529745</v>
+        <v>0.6865383053473703</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.74728140075769</v>
+        <v>0.7334392066262262</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8359422389789527</v>
+        <v>0.8602192283736901</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.21186333875303343</v>
+        <v>0.18652282176227855</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>2.9569703337948074</v>
+        <v>2.751489434523822</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.02233728706059268</v>
+        <v>0.023306643667486915</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.04202555592921576</v>
+        <v>0.04974046469250301</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.18300809108663382</v>
+        <v>0.11683419195656297</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7418341475378837</v>
+        <v>0.7268043210855213</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7692426494845818</v>
+        <v>0.7621834941557601</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8604283438147919</v>
+        <v>0.8757742656975961</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2325700844700421</v>
+        <v>0.21078190820536552</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.333556429584607</v>
+        <v>3.204922599674219</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.01986765397196014</v>
+        <v>0.020260903033885988</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04321574210221853</v>
+        <v>0.054608558836435346</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.1880440199112986</v>
+        <v>0.14807515625489207</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7568783800127858</v>
+        <v>0.7223890561534333</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7744564103261709</v>
+        <v>0.7559758950384637</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8619503554631807</v>
+        <v>0.8684640393263656</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.23789637851635143</v>
+        <v>0.20519041472879013</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.4337327496035424</v>
+        <v>3.097955815297931</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.01863357097205026</v>
+        <v>0.01984872471513119</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04106462014794109</v>
+        <v>0.055144800366826945</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.1880440199112986</v>
+        <v>0.14807515625489207</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7327553609798926</v>
+        <v>0.7377639405124398</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7580497627274537</v>
+        <v>0.7620508558400079</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8780994346870676</v>
+        <v>0.8775400970680522</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.22168423358140887</v>
+        <v>0.21066022724459607</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.1330812950331746</v>
+        <v>3.2025786792812365</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.020919799283263027</v>
+        <v>0.01853080015921944</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.05078333953359216</v>
+        <v>0.05531404498390393</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.1709004929518856</v>
+        <v>0.14807515625489207</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7356115979287541</v>
+        <v>0.7159819450864628</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7591867880000367</v>
+        <v>0.7547894484730772</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8792517249012667</v>
+        <v>0.8849320721912647</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.22275744051850846</v>
+        <v>0.20414523260575013</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.15259607932206</v>
+        <v>3.0781279344343613</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.020630771360162253</v>
+        <v>0.02084632009902813</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.0504995287013321</v>
+        <v>0.0661892092082968</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.1709004929518856</v>
+        <v>0.10943728604992872</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7203269763060096</v>
+        <v>0.7255027061432574</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.742597511454364</v>
+        <v>0.7641728396018342</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8489907246981137</v>
+        <v>0.8871683779370514</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.20777625653256834</v>
+        <v>0.2126187647304945</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.8849663251126865</v>
+        <v>3.240393677774948</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.021711177924370162</v>
+        <v>0.020077992367016226</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.04585377643956572</v>
+        <v>0.06430154626172527</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.15435151562626478</v>
+        <v>0.10943728604992872</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7238985727950323</v>
+        <v>0.707039360914245</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7468227629577159</v>
+        <v>0.7458542540693494</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8523651329282258</v>
+        <v>0.860480064486997</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.21145835139661115</v>
+        <v>0.19650480140817228</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.9498021689563885</v>
+        <v>2.934750103087985</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.021471319513947283</v>
+        <v>0.021336069933093508</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.046194356412754725</v>
+        <v>0.061147661952756886</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.15435151562626478</v>
+        <v>0.1017412875867589</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7097927555358621</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7482955996792409</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8629063371313164</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.19855281370830627</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.972914254679902</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.021170895659252804</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.061654535833007194</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.1017412875867589</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>382.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6120058868949926</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6735264333473415</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6500215574911182</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5240209000029107</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.358638743455497</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.0890368642627997</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>382.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5858959537566079</v>
+        <v>0.24591622686265877</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6483922244371987</v>
+        <v>0.38030944281198775</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6253827908882752</v>
+        <v>0.30380035136454553</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.48239987936284295</v>
+        <v>0.22660604107449658</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.8141361256544504</v>
+        <v>0.9712041884816754</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.2121472508730626</v>
+        <v>0.16745153310858585</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>382.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5652623962112613</v>
+        <v>0.5199708173105282</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6352018899396311</v>
+        <v>0.5836545666917489</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6105439894256297</v>
+        <v>0.5453930257536225</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.47858272952070535</v>
+        <v>0.41293237658298937</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.405759162303665</v>
+        <v>3.358638743455497</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0040695799457948</v>
+        <v>1.0890368642627997</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>382.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.46978308090297066</v>
+        <v>0.4766472174205364</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.5407698308140161</v>
+        <v>0.5394893198527773</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5079902168684631</v>
+        <v>0.49765994239321526</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.34883462462911174</v>
+        <v>0.3504661616828659</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.7931937172774868</v>
+        <v>3.8141361256544504</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.225989667895776</v>
+        <v>1.2121472508730626</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>382.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6105987819319643</v>
+        <v>0.6457685294041355</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.539415719040022</v>
+        <v>0.6174593490062638</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5575616326657891</v>
+        <v>0.6437965226558771</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4623038183873045</v>
+        <v>0.6111417778601578</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.0759162303664922</v>
+        <v>0.306282722513089</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.7166762958622264</v>
+        <v>0.46155312796787046</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>382.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6243087836663335</v>
+        <v>0.6751349624860292</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5509128004520069</v>
+        <v>0.6382605610742069</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5699720535647239</v>
+        <v>0.6657374034712071</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.47010510520277665</v>
+        <v>0.5340419134577945</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.130890052356021</v>
+        <v>1.0759162303664922</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.8080132927110755</v>
+        <v>1.7166762958622264</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>382.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.42091979688151976</v>
+        <v>0.6905683418768725</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.3715120181145524</v>
+        <v>0.651644393060136</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3266235890515632</v>
+        <v>0.679749903041345</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.2637986473191279</v>
+        <v>0.5451129550582692</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.3272251308900525</v>
+        <v>1.130890052356021</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.5007407258037415</v>
+        <v>1.8080132927110755</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>382.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.3814673689248797</v>
+        <v>0.38401665452851863</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.3253656399281276</v>
+        <v>0.4110745917974072</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.27829159950016635</v>
+        <v>0.379510903889937</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.18905383014485536</v>
+        <v>0.3411296395398329</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.397905759162304</v>
+        <v>0.7984293193717278</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.7669452001057415</v>
+        <v>0.40169933517934164</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>382.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.49017635847755975</v>
+        <v>0.47052766768843546</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.46582573561123863</v>
+        <v>0.4665236903270391</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.3688792162367441</v>
+        <v>0.4496513773894196</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3373893074039038</v>
+        <v>0.30996240740767983</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.6413612565445026</v>
+        <v>2.3272251308900525</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.543648821922959</v>
+        <v>1.5007407258037415</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>382.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.44718054593105894</v>
+        <v>0.4351830449665367</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.45652759833960077</v>
+        <v>0.4122812639702622</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.3554368378229798</v>
+        <v>0.37573579185961303</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.306527283216597</v>
+        <v>0.23726115263741937</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.201570680628272</v>
+        <v>2.397905759162304</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3818081820377666</v>
+        <v>1.7669452001057415</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>382.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5554910212311578</v>
+        <v>0.5167356215972096</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5863227947528814</v>
+        <v>0.4768884357684212</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5653345867959889</v>
+        <v>0.38391917331048964</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.4453935851721055</v>
+        <v>0.3583786272794863</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.8219895287958114</v>
+        <v>1.6413612565445026</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2315784720018716</v>
+        <v>1.543648821922959</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>382.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5258214580387521</v>
+        <v>0.4289900136504951</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5544215627448311</v>
+        <v>0.39285905799174914</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.528270487167902</v>
+        <v>0.29634848487845383</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.41657309693644656</v>
+        <v>0.2772175149819266</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.201570680628272</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3818081820377666</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>382.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5483641524791295</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5526562112398937</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5300476749377234</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.4300188862272867</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.8219895287958114</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2315784720018716</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>382.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5260084677783484</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5323467114084499</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.505648429342576</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4097880963462535</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.7696335078534031</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.1813597627111807</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.028795811518324606</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.07591623036649214</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.002617801047120419</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.36649214659685864</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.45287958115183247</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.07329842931937172</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.028795811518324606</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.013089005235602094</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.0549738219895288</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.31151832460732987</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.20157068062827224</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.3900523560209424</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.010471204188481676</v>
+        <v>0.028795811518324606</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.07591623036649214</v>
+        <v>0.9712041884816754</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.010471204188481676</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.38481675392670156</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.43717277486910994</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.08115183246073299</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.010471204188481676</v>
+        <v>0.028795811518324606</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.03664921465968586</v>
+        <v>0.07591623036649214</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.06282722513089005</v>
+        <v>0.002617801047120419</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.3612565445026178</v>
+        <v>0.36649214659685864</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.0968586387434555</v>
+        <v>0.45287958115183247</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.4319371727748691</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.693717277486911</v>
+        <v>0.028795811518324606</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.02617801047120419</v>
+        <v>0.013089005235602094</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.002617801047120419</v>
+        <v>0.0549738219895288</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.10471204188481675</v>
+        <v>0.31151832460732987</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.13350785340314136</v>
+        <v>0.20157068062827224</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.03926701570680628</v>
+        <v>0.3900523560209424</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.693717277486911</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.015706806282722512</v>
+        <v>0.306282722513089</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.013089005235602094</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.1099476439790576</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.07853403141361257</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.08900523560209424</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.20157068062827224</v>
+        <v>0.693717277486911</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.14659685863874344</v>
+        <v>0.02617801047120419</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.02356020942408377</v>
+        <v>0.002617801047120419</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.39267015706806285</v>
+        <v>0.10471204188481675</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.22251308900523561</v>
+        <v>0.13350785340314136</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.013089005235602094</v>
+        <v>0.03926701570680628</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.20157068062827224</v>
+        <v>0.693717277486911</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.17801047120418848</v>
+        <v>0.015706806282722512</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.1518324607329843</v>
+        <v>0.013089005235602094</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.10209424083769633</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.22251308900523561</v>
+        <v>0.07853403141361257</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.14397905759162305</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.3795811518324607</v>
+        <v>0.20157068062827224</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.14921465968586387</v>
+        <v>0.7984293193717278</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.06544502617801047</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.2617801047120419</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.14397905759162305</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.19895287958115182</v>
+        <v>0.20157068062827224</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.12827225130890052</v>
+        <v>0.14659685863874344</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.09162303664921466</v>
+        <v>0.02356020942408377</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.43455497382198954</v>
+        <v>0.39267015706806285</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.14659685863874344</v>
+        <v>0.22251308900523561</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.013089005235602094</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.21727748691099477</v>
+        <v>0.20157068062827224</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.11780104712041885</v>
+        <v>0.17801047120418848</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.38219895287958117</v>
+        <v>0.1518324607329843</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.19109947643979058</v>
+        <v>0.10209424083769633</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.09162303664921466</v>
+        <v>0.22251308900523561</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.14397905759162305</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.2198952879581152</v>
+        <v>0.3795811518324607</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.10471204188481675</v>
+        <v>0.14921465968586387</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.43455497382198954</v>
+        <v>0.06544502617801047</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.16753926701570682</v>
+        <v>0.2617801047120419</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.07329842931937172</v>
+        <v>0.14397905759162305</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.19895287958115182</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.12827225130890052</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.09162303664921466</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.43455497382198954</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.14659685863874344</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.21727748691099477</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.11780104712041885</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.38219895287958117</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.19109947643979058</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.09162303664921466</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.2198952879581152</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.10471204188481675</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.43455497382198954</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.16753926701570682</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.07329842931937172</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8550239267928555</v>
+        <v>0.8716683380190892</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8579158356487758</v>
+        <v>0.980281449772709</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8498383948057149</v>
+        <v>0.9707201285529696</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6015175011627419</v>
+        <v>0.9430887634701494</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.0380820027772835</v>
+        <v>49.71366750969228</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.012173941775643985</v>
+        <v>0.0024628108440700553</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.592931937172775</v>
+        <v>0.837696335078534</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9487537290571837</v>
+        <v>1.3058669856182452</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.637042920515577</v>
+        <v>0.9425794443408329</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8215316582098514</v>
+        <v>0.9695767188234123</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8247654892674328</v>
+        <v>0.9702476197911705</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.766827716607649</v>
+        <v>0.9422144958717245</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6107252192816969</v>
+        <v>0.9422144958717242</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.706638468755406</v>
+        <v>32.61075628171866</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.01551641813002389</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.005446658707856927</v>
-      </c>
+        <v>0.003076534504887076</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.634614953076929</v>
+        <v>0.9422144958717242</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8072810505420152</v>
+        <v>0.6224030859188643</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8143475376157041</v>
+        <v>0.9704410772869825</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7633691486352843</v>
+        <v>0.9425794443408329</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5938486203228109</v>
+        <v>0.9425794443408329</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.386408492282886</v>
+        <v>32.83073225329719</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.017334786348175462</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.011280061296126551</v>
-      </c>
+        <v>0.006933609831364358</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.639470887954225</v>
+        <v>0.9425794443408329</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8116700799240567</v>
+        <v>0.6428090842560024</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8123626168659994</v>
+        <v>0.9714433327907912</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7598159132905465</v>
+        <v>0.9444723501978906</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5906911380846885</v>
+        <v>0.9444723501978907</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.329428407588982</v>
+        <v>34.01809201591719</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.01669845045836282</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.010716202821686303</v>
-      </c>
+        <v>0.006838593838932946</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.634614953076929</v>
+        <v>0.9444723501978907</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.821811277812309</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8248140026415174</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7667516415604044</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6108050269617719</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.708218779345151</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.015666702029216883</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.005313201991625579</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.639470887954225</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>382.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9666892136698922</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9811432662912963</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.967118130104175</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9574246388531945</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.306282722513089</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.46155312796787046</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>382.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8211870648351929</v>
+        <v>0.9843107654313747</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8290926163917203</v>
+        <v>0.9810192412448159</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7611525800527048</v>
+        <v>0.9668151895465089</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6834160449648397</v>
+        <v>0.9515672897602545</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.358638743455497</v>
+        <v>1.0759162303664922</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0890368642627997</v>
+        <v>1.7166762958622264</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>382.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8549324393166732</v>
+        <v>0.9854349937123316</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8442088780902688</v>
+        <v>0.9803759511455912</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7797827467624686</v>
+        <v>0.9652065286378625</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7182755564873694</v>
+        <v>0.9511529794995404</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.8141361256544504</v>
+        <v>1.130890052356021</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.2121472508730626</v>
+        <v>1.8080132927110755</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>382.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8330312610553525</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8470370147270553</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7855271901301731</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.716641339931347</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.405759162303665</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0040695799457948</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>382.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.838495301157273</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8290211331633456</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7612009347363833</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6871916525729477</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.7931937172774868</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.225989667895776</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.693717277486911</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.306282722513089</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.693717277486911</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.02617801047120419</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.002617801047120419</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.10471204188481675</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.13350785340314136</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.03926701570680628</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.028795811518324606</v>
+        <v>0.693717277486911</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.07591623036649214</v>
+        <v>0.015706806282722512</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.002617801047120419</v>
+        <v>0.013089005235602094</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.36649214659685864</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.45287958115183247</v>
+        <v>0.07853403141361257</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.07329842931937172</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.028795811518324606</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.013089005235602094</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.0549738219895288</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.31151832460732987</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.20157068062827224</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.3900523560209424</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.010471204188481676</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.07591623036649214</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.010471204188481676</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.38481675392670156</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.43717277486910994</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.08115183246073299</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.010471204188481676</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.03664921465968586</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.06282722513089005</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.3612565445026178</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.0968586387434555</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.4319371727748691</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,28 +5873,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.8554858656662148</v>
+        <v>0.7756050456031994</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.861990169401696</v>
+        <v>0.8952275306059252</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7574540625440009</v>
+        <v>0.8558048846779223</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7574540625440012</v>
+        <v>0.7401358162871228</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>6.245860643874225</v>
+        <v>8.544492038636177</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.014342306988211366</v>
+        <v>0.01034145461307205</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.362565445026178</v>
+        <v>1.8411867364746946</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.5322728438121538</v>
+        <v>1.128553550779628</v>
       </c>
       <c r="I6" t="n" s="269">
         <v>0.757454062544001</v>
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.757454062544001</v>
+        <v>0.8554858656662148</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.757454062544001</v>
+        <v>0.861990169401696</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.5737366568644111</v>
+        <v>0.7574540625440009</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.757454062544001</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.757454062544001</v>
-      </c>
+        <v>0.7574540625440012</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>6.245860643874225</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.014342306988211366</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.757454062544001</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.5737366568644111</v>
+        <v>0.45582079183126156</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.757454062544001</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.5737366568644111</v>
-      </c>
+        <v>0.8114825988311971</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.6827687992057794</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.6827687992057794</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>4.3045501041284595</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.018410260270547606</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.757454062544001</v>
+        <v>0.6827687992057794</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.5608786850859513</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.876520999855936</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.7801845871115877</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.7801845871115878</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>7.098543062652691</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.015247327753451079</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.7801845871115878</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>382.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.926440926425671</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9374044118052788</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.8158402783046484</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7574540625440009</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.3272251308900525</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.5007407258037415</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>382.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9475098940169532</v>
+        <v>0.8208055846710219</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9374044118052788</v>
+        <v>0.9029130749905113</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.8158402783046484</v>
+        <v>0.8287874515089148</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.757454062544001</v>
+        <v>0.7757332010619339</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.7984293193717278</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.40169933517934164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>382.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9311388528258219</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9302925216141515</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8880502940522117</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.8009772822022004</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.3272251308900525</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.5007407258037415</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>382.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9386514062529511</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8945801167025129</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.8066292614463703</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7704287294703596</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.397905759162304</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.7669452001057415</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.20157068062827224</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.7984293193717278</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.20157068062827224</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.14659685863874344</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.02356020942408377</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.39267015706806285</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.22251308900523561</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.013089005235602094</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.20157068062827224</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.17801047120418848</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.1518324607329843</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.10209424083769633</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.22251308900523561</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.14397905759162305</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8793345953320149</v>
+        <v>0.6706528925502833</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8797614612755518</v>
+        <v>0.8053991739975783</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7853340434772812</v>
+        <v>0.7410485794011152</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7853340434772813</v>
+        <v>0.5797568501558118</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>7.316801007468245</v>
+        <v>4.138724334024951</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.012319718151276245</v>
+        <v>0.014994761726363387</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.7958115183246073</v>
+        <v>2.7146596858638743</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1399144629111955</v>
+        <v>0.7343350256932386</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7853340434772812</v>
+        <v>0.5425245424981029</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7853340434772813</v>
+        <v>0.7960584933051709</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7853340434772813</v>
+        <v>0.7988031662172506</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6167495598443762</v>
+        <v>0.6650060537553193</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7853340434772813</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7853340434772813</v>
-      </c>
+        <v>0.6650060537553193</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>3.9702571417191916</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.020656983357157092</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.7853340434772813</v>
+        <v>0.6650060537553194</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6167495598443762</v>
+        <v>0.2564525162012963</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7853340434772813</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6167495598443762</v>
-      </c>
+        <v>0.7034241952734053</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.5425245424981031</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.5425245424981029</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>2.3718192248416</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.017519035360756066</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.7853340434772813</v>
+        <v>0.5425245424981029</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.2754831153620927</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.6942953374704737</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.5317399542140129</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.5317399542140131</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>2.271131005087028</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.019108400615500173</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.5317399542140131</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>382.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.947150238684807</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9448105745273179</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8372823906310394</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7853340434772811</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.8219895287958114</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2315784720018716</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>382.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9424217052658647</v>
+        <v>0.6373819074582602</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.944810574527318</v>
+        <v>0.8149397933136756</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8372823906310396</v>
+        <v>0.6485315475439896</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7853340434772811</v>
+        <v>0.5888389036490086</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.7696335078534031</v>
+        <v>0.9712041884816754</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.1813597627111807</v>
+        <v>0.16745153310858585</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>382.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9006619255343108</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8630604923021207</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.766919349347518</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.6830078191875071</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.358638743455497</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.0890368642627997</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>382.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9202021120387646</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8672975556858601</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.7756478410569956</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.686899184224478</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.8141361256544504</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.2121472508730626</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.21727748691099477</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.11780104712041885</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.38219895287958117</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.19109947643979058</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.09162303664921466</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.028795811518324606</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9712041884816754</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.2198952879581152</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.10471204188481675</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.43455497382198954</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.16753926701570682</v>
-      </c>
-      <c r="F24" t="n" s="458">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.028795811518324606</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.07591623036649214</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.002617801047120419</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.36649214659685864</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.45287958115183247</v>
+      </c>
+      <c r="G26" t="n" s="459">
         <v>0.07329842931937172</v>
       </c>
-      <c r="G24" t="n" s="459">
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.028795811518324606</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.013089005235602094</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.0549738219895288</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.31151832460732987</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.20157068062827224</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.3900523560209424</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9695767188234123</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9702476197911705</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9422144958717245</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9422144958717242</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>32.61075628171866</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.003076534504887076</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>1.1034031413612566</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.7367160429826636</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9422144958717242</v>
+      <c r="A6" t="n" s="491">
+        <v>0.5733553788463559</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5758620356194506</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.40435832062796706</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.40435832062796706</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.3577233918696552</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.04334015582404684</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.9214659685863875</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.226505159248411</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.40435832062796706</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9422144958717242</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9422144958717242</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.887768156230808</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9422144958717242</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9422144958717242</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9422144958717242</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.40435832062796706</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.40435832062796706</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.16350565146107</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.40435832062796706</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.40435832062796706</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.40435832062796706</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.887768156230808</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9422144958717242</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.887768156230808</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9422144958717242</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.16350565146107</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.40435832062796706</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.16350565146107</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.40435832062796706</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>382.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.984678135151398</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.985447739829902</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9565517895290699</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9422144958717241</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>1.0759162303664922</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.7166762958622264</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8570671072961726</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8379613119434474</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5328526870013124</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.4043583206279671</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.6413612565445026</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.543648821922959</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>382.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9861976565578476</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.985447739829902</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9565517895290699</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9422144958717242</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>1.130890052356021</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.8080132927110755</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8177688500467157</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8379613119434474</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5328526870013122</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.404358320627967</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.201570680628272</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3818081820377666</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.693717277486911</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.02617801047120419</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.002617801047120419</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.10471204188481675</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.13350785340314136</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.03926701570680628</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.3795811518324607</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.14921465968586387</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.06544502617801047</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.2617801047120419</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.14397905759162305</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.693717277486911</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.015706806282722512</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.013089005235602094</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.1099476439790576</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.07853403141361257</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.08900523560209424</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.19895287958115182</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.12827225130890052</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.09162303664921466</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.43455497382198954</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.14659685863874344</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.5733553788463559</v>
+        <v>0.8793345953320149</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5758620356194506</v>
+        <v>0.8797614612755518</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.40435832062796706</v>
+        <v>0.7853340434772812</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.40435832062796706</v>
+        <v>0.7853340434772813</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.3577233918696552</v>
+        <v>7.316801007468245</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.04334015582404684</v>
+        <v>0.012319718151276245</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.9214659685863875</v>
+        <v>1.7958115183246073</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.226505159248411</v>
+        <v>1.1399144629111955</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.40435832062796706</v>
+        <v>0.7853340434772812</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.40435832062796706</v>
+        <v>0.7853340434772813</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.40435832062796706</v>
+        <v>0.7853340434772813</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.16350565146107</v>
+        <v>0.6167495598443762</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.40435832062796706</v>
+        <v>0.7853340434772813</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.40435832062796706</v>
+        <v>0.7853340434772813</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.40435832062796706</v>
+        <v>0.7853340434772813</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.16350565146107</v>
+        <v>0.6167495598443762</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.40435832062796706</v>
+        <v>0.7853340434772813</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.16350565146107</v>
+        <v>0.6167495598443762</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.40435832062796706</v>
+        <v>0.7853340434772813</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>382.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8570671072961726</v>
+        <v>0.947150238684807</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8379613119434474</v>
+        <v>0.9448105745273179</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5328526870013124</v>
+        <v>0.8372823906310394</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.4043583206279671</v>
+        <v>0.7853340434772811</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.6413612565445026</v>
+        <v>1.8219895287958114</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.543648821922959</v>
+        <v>1.2315784720018716</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>382.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8177688500467157</v>
+        <v>0.9424217052658647</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8379613119434474</v>
+        <v>0.944810574527318</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5328526870013122</v>
+        <v>0.8372823906310396</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.404358320627967</v>
+        <v>0.7853340434772811</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.201570680628272</v>
+        <v>1.7696335078534031</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3818081820377666</v>
+        <v>1.1813597627111807</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.3795811518324607</v>
+        <v>0.21727748691099477</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.14921465968586387</v>
+        <v>0.11780104712041885</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.06544502617801047</v>
+        <v>0.38219895287958117</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.2617801047120419</v>
+        <v>0.19109947643979058</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.14397905759162305</v>
+        <v>0.09162303664921466</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.19895287958115182</v>
+        <v>0.2198952879581152</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.12827225130890052</v>
+        <v>0.10471204188481675</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.09162303664921466</v>
+        <v>0.43455497382198954</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.43455497382198954</v>
+        <v>0.16753926701570682</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.14659685863874344</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7785862650292086</v>
+        <v>0.7629828067676414</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.7933480003540733</v>
+        <v>0.7896680790488217</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.8810482916632797</v>
+        <v>0.8803913583076466</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.27740720943696534</v>
+        <v>0.27295940157473625</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>3.839053102381679</v>
+        <v>3.7543900872379576</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.017310816843379553</v>
+        <v>0.017046608880242422</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.4013089005235604</v>
+        <v>1.8091623036649214</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.788082735357362</v>
+        <v>0.7216522525346817</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.2227657954393147</v>
+        <v>0.22545157873468014</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7498302346968282</v>
+        <v>0.7439903234812001</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.759182434142903</v>
+        <v>0.7591587637069137</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8552154683269186</v>
+        <v>0.851269513721395</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2594129236126779</v>
+        <v>0.2593880515627307</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.152521002531052</v>
+        <v>3.1521128831238543</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.019488166829802842</v>
+        <v>0.01892990584327592</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.042039842737213326</v>
+        <v>0.040955209304466604</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.20526292592212345</v>
+        <v>0.22861735639115321</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7554640912780219</v>
+        <v>0.7151942341345285</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7655818316540252</v>
+        <v>0.7562230304348541</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8574278193338449</v>
+        <v>0.8503019741618055</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.2662573497526558</v>
+        <v>0.2563280427078243</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.265880955626752</v>
+        <v>3.1021102271630463</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.018926871580282025</v>
+        <v>0.02076982332637224</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.03960084232962907</v>
+        <v>0.04168305422623739</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.2223811223883591</v>
+        <v>0.22368169343032074</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7559227219663918</v>
+        <v>0.7145091530927413</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7647879796677666</v>
+        <v>0.7547017128370667</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8564619075904654</v>
+        <v>0.8498991231119548</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.26539507862701994</v>
+        <v>0.25476141093551485</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.251483400327563</v>
+        <v>3.076669313780307</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.019043534817280564</v>
+        <v>0.02091078118351962</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.0402391669980308</v>
+        <v>0.04189728161471262</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.22861735639115321</v>
+        <v>0.22368169343032074</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7677208552190926</v>
+        <v>0.7687933329380011</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7782740811283527</v>
+        <v>0.7935556890653318</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8617854353375283</v>
+        <v>0.8818437444696694</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.2805797168485038</v>
+        <v>0.2992794199829212</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.5100726387287184</v>
+        <v>3.8439213242183365</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.018034746562369898</v>
+        <v>0.017377389851843672</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.0369346351078808</v>
+        <v>0.057058535657676886</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.22861735639115321</v>
+        <v>0.23063566269620606</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7548143445335379</v>
+        <v>0.7420313630377118</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7708663362762406</v>
+        <v>0.7647206986337987</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8494259986269685</v>
+        <v>0.8612833141822294</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.27209582681666195</v>
+        <v>0.2653221735657345</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.36426487382311</v>
+        <v>3.250267635925807</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.019217812862829305</v>
+        <v>0.018243629996536066</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.044097013347089105</v>
+        <v>0.06397696549126922</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.19366225239916995</v>
+        <v>0.2209186670958001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7599313591663235</v>
+        <v>0.753454200748267</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.776628762858429</v>
+        <v>0.7743133102613488</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8537183582180293</v>
+        <v>0.8662288094455416</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.2786642093470331</v>
+        <v>0.27599896607082686</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.476852135470817</v>
+        <v>3.4309214741818215</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.018883020465450446</v>
+        <v>0.017305936129216534</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.04337419358666419</v>
+        <v>0.061035062321038634</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.2223811223883591</v>
+        <v>0.22640952069012282</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7541059353553705</v>
+        <v>0.7507034398376219</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7798705095025033</v>
+        <v>0.7816092038378321</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8359345569349347</v>
+        <v>0.8824102231738317</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.2824557633347764</v>
+        <v>0.28451883851187776</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.542780695762214</v>
+        <v>3.578947545286851</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.019376556309232143</v>
+        <v>0.01787445868474249</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03584891044689481</v>
+        <v>0.06858094839721966</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.2270849353474929</v>
+        <v>0.2209186670958001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7548013021921505</v>
+        <v>0.7566565033033663</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.7787423421855868</v>
+        <v>0.7887671350936309</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8350391698405508</v>
+        <v>0.8842328422722808</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.281128202008956</v>
+        <v>0.29323692647998556</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.519617580146225</v>
+        <v>3.73411180804303</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.019329314942605764</v>
+        <v>0.017300526465243493</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.036008754644346254</v>
+        <v>0.06658539037278187</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.22506662904244013</v>
+        <v>0.22861735639115321</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7731715837809224</v>
+        <v>0.7345037052363504</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.7901754587991584</v>
+        <v>0.7668582651418152</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.8840319918466426</v>
+        <v>0.8485687969938046</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.29499609555396145</v>
+        <v>0.26765180880324946</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>3.7658867465022183</v>
+        <v>3.2892363334616146</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.01804252877035994</v>
+        <v>0.018766225662693096</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.04784319299846322</v>
+        <v>0.06286839359854685</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.22506662904244013</v>
+        <v>0.19366225239916995</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7717879972785173</v>
+        <v>0.7396135952681002</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.7886465040524158</v>
+        <v>0.7717670411385332</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.8844930080094867</v>
+        <v>0.8525618574961626</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.29308692846740736</v>
+        <v>0.27310837712669733</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>3.7314097905813726</v>
+        <v>3.3814881294466392</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.01803582222652504</v>
+        <v>0.018482108846544477</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.04921289182254995</v>
+        <v>0.062362824821143685</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.22861735639115321</v>
+        <v>0.22368169343032074</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>382.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.647476352237114</v>
+        <v>0.71178330767614</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7008754692004528</v>
+        <v>0.6710310881432364</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6724514391221608</v>
+        <v>0.7003624720266046</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5556297674803571</v>
+        <v>0.6779732476070328</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.358638743455497</v>
+        <v>0.306282722513089</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.0890368642627997</v>
+        <v>0.46155312796787046</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>382.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6000485750872226</v>
+        <v>0.7394805262293779</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6592065212181368</v>
+        <v>0.6897680186783325</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6287242811561479</v>
+        <v>0.7201642240434046</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.4871560821066381</v>
+        <v>0.5974932573866925</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.8141361256544504</v>
+        <v>1.0759162303664922</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.2121472508730626</v>
+        <v>1.7166762958622264</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>382.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.602349229223796</v>
+        <v>0.7506187948222663</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6644560381164066</v>
+        <v>0.6993607591191876</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6351138934068589</v>
+        <v>0.7300178148333962</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5113281287620205</v>
+        <v>0.6034923187413959</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.405759162303665</v>
+        <v>1.130890052356021</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0040695799457948</v>
+        <v>1.8080132927110755</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>382.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.5080025715649834</v>
+        <v>0.2736878626020156</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.5720117794976192</v>
+        <v>0.4267697691471856</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.5341136409348192</v>
+        <v>0.33988101335278065</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.3786915091445594</v>
+        <v>0.2520212890389431</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.7931937172774868</v>
+        <v>0.9712041884816754</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.225989667895776</v>
+        <v>0.16745153310858585</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>382.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6051734518444202</v>
+        <v>0.560881274825826</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6236618032095639</v>
+        <v>0.6346954966370908</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.5991475087849737</v>
+        <v>0.5908143787656562</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.4911715302025569</v>
+        <v>0.4437675720574686</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>1.8219895287958114</v>
+        <v>3.358638743455497</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.2315784720018716</v>
+        <v>1.0890368642627997</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>382.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5652860910615886</v>
+        <v>0.4910311808108979</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.5836734120152546</v>
+        <v>0.5693197644117445</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5533856886910281</v>
+        <v>0.5184635583930993</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.44975461120956534</v>
+        <v>0.34770962828910384</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.7696335078534031</v>
+        <v>3.8141361256544504</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.1813597627111807</v>
+        <v>1.2121472508730626</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>382.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6510099538065586</v>
+        <v>0.5646579773955055</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5605903861112114</v>
+        <v>0.5171512035790237</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5772727622172655</v>
+        <v>0.410779990603531</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.4956443394508503</v>
+        <v>0.3911312396246515</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>1.0759162303664922</v>
+        <v>1.6413612565445026</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.7166762958622264</v>
+        <v>1.543648821922959</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>382.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6606230517903954</v>
+        <v>0.500607385830248</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5686725952983097</v>
+        <v>0.4637689369246714</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.586051502773212</v>
+        <v>0.35375649482046173</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.49807271923137203</v>
+        <v>0.33629736164798996</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>1.130890052356021</v>
+        <v>2.201570680628272</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.8080132927110755</v>
+        <v>1.3818081820377666</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>382.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5209963109122379</v>
+        <v>0.6163896652998588</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.48424469397640296</v>
+        <v>0.6204307622238417</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.3779703379849719</v>
+        <v>0.5955106815362127</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.3559542635513789</v>
+        <v>0.49260428671844153</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.6413612565445026</v>
+        <v>1.8219895287958114</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.543648821922959</v>
+        <v>1.2315784720018716</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>382.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5003583563335744</v>
+        <v>0.5815824333802814</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.49586772597239603</v>
+        <v>0.5870193093541817</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.3862019220835187</v>
+        <v>0.5567620772611472</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.35144430990649766</v>
+        <v>0.4569288815887246</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.201570680628272</v>
+        <v>1.7696335078534031</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3818081820377666</v>
+        <v>1.1813597627111807</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.028795811518324606</v>
+        <v>0.693717277486911</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.07591623036649214</v>
+        <v>0.306282722513089</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.002617801047120419</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.36649214659685864</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.45287958115183247</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.07329842931937172</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.028795811518324606</v>
+        <v>0.693717277486911</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.013089005235602094</v>
+        <v>0.02617801047120419</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.0549738219895288</v>
+        <v>0.002617801047120419</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.31151832460732987</v>
+        <v>0.10471204188481675</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.20157068062827224</v>
+        <v>0.13350785340314136</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.3900523560209424</v>
+        <v>0.03926701570680628</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.010471204188481676</v>
+        <v>0.693717277486911</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.07591623036649214</v>
+        <v>0.015706806282722512</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.010471204188481676</v>
+        <v>0.013089005235602094</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.38481675392670156</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.43717277486910994</v>
+        <v>0.07853403141361257</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.08115183246073299</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.010471204188481676</v>
+        <v>0.028795811518324606</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.03664921465968586</v>
+        <v>0.9712041884816754</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.06282722513089005</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.3612565445026178</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.0968586387434555</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.4319371727748691</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.21727748691099477</v>
+        <v>0.028795811518324606</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.11780104712041885</v>
+        <v>0.07591623036649214</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.38219895287958117</v>
+        <v>0.002617801047120419</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.19109947643979058</v>
+        <v>0.36649214659685864</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.09162303664921466</v>
+        <v>0.45287958115183247</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.2198952879581152</v>
+        <v>0.028795811518324606</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.10471204188481675</v>
+        <v>0.013089005235602094</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.43455497382198954</v>
+        <v>0.0549738219895288</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.16753926701570682</v>
+        <v>0.31151832460732987</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.07329842931937172</v>
+        <v>0.20157068062827224</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.3900523560209424</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.693717277486911</v>
+        <v>0.3795811518324607</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.02617801047120419</v>
+        <v>0.14921465968586387</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.002617801047120419</v>
+        <v>0.06544502617801047</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.10471204188481675</v>
+        <v>0.2617801047120419</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.13350785340314136</v>
+        <v>0.14397905759162305</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.03926701570680628</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.693717277486911</v>
+        <v>0.19895287958115182</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.015706806282722512</v>
+        <v>0.12827225130890052</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.013089005235602094</v>
+        <v>0.09162303664921466</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.1099476439790576</v>
+        <v>0.43455497382198954</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.07853403141361257</v>
+        <v>0.14659685863874344</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.08900523560209424</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.3795811518324607</v>
+        <v>0.21727748691099477</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.14921465968586387</v>
+        <v>0.11780104712041885</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.06544502617801047</v>
+        <v>0.38219895287958117</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.2617801047120419</v>
+        <v>0.19109947643979058</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.14397905759162305</v>
+        <v>0.09162303664921466</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.19895287958115182</v>
+        <v>0.2198952879581152</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.12827225130890052</v>
+        <v>0.10471204188481675</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.09162303664921466</v>
+        <v>0.43455497382198954</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.43455497382198954</v>
+        <v>0.16753926701570682</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.14659685863874344</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
